--- a/weather.xlsx
+++ b/weather.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,6 +1051,294 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:26:42</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:26:47</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:26:52</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:26:58</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27:03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27:08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27:13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27:19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27:24</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kościelisko</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
